--- a/P0014/09_FICHAS/N3-FD-General.xlsx
+++ b/P0014/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0014/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{CC432946-1B4A-44C4-95D4-BE09E7777EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F436184-5227-416F-AB6E-8C495C878553}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{CC432946-1B4A-44C4-95D4-BE09E7777EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F74CD4-B678-4D11-B430-3925AECC2D8E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,23 +910,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="165.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
     <col min="8" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2627,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>